--- a/medicine/Enfance/Florence_Delaporte/Florence_Delaporte.xlsx
+++ b/medicine/Enfance/Florence_Delaporte/Florence_Delaporte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Delaporte, née en 1959 à Rouen, est une traductrice et autrice française.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enfance de Florence Delaporte se déroule à Rouen. Elle effectue ensuite ses études aux États-Unis (Université de Wayne State  à Détroit en 1979-1980), en Allemagne (Université de Fribourg-en-Brisgau en 1980-1981)  puis en France (Université de Poitiers en 1990-1991). Elle travaille dans le monde des bibliothèques[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enfance de Florence Delaporte se déroule à Rouen. Elle effectue ensuite ses études aux États-Unis (Université de Wayne State  à Détroit en 1979-1980), en Allemagne (Université de Fribourg-en-Brisgau en 1980-1981)  puis en France (Université de Poitiers en 1990-1991). Elle travaille dans le monde des bibliothèques,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Je n’ai pas de château, Paris, Éditions Gallimard, coll. « Blanche », 1998, 177 p.  (ISBN 2-07-075282-8)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Je n’ai pas de château, Paris, Éditions Gallimard, coll. « Blanche », 1998, 177 p.  (ISBN 2-07-075282-8)
 - Prix Wepler 1998 et prix Gironde-Nouvelles-Ecritures 1999
 Le Poisson dans l’arbre, Paris, Éditions Gallimard, coll. « Haute Enfance », 2001, 184 p.  (ISBN 2-07-076104-5)
 Les enfants qui tombent dans la mer, Paris, Éditions Gallimard, coll. « Blanche », 2002, 271 p.  (ISBN 2-07-076664-0)
@@ -553,14 +572,116 @@
 Terre Neuve, Paris, Éditions Gallimard, coll. « Blanche », 2010, 152 p.  (ISBN 978-2-07-012860-0)
 Deux livres de chair, Paris, F. Bourin Éditeur, 2016, 282 p.  (ISBN 979-10-2520-164-0)
 Hors d'ici, Paris, Le Cherche midi, 2020, 156 p.  (ISBN 978-2-7491-6463-2)
-Les Champs captants, Paris, R. Laffont, 2023, 251 p.  (ISBN 978-2-221-25380-9)
-Enfance
-À quoi rêve Crusoé ?, Rodez, France, Éditions du Rouergue, coll. « Dacodac », 2012, 119 p.  (ISBN 978-2-8126-0446-1)
-Amour ennemi, Paris, Éditions Oskar, 2013, 133 p.  (ISBN 979-10-214-0007-8)
-Biographies
-Sœur Sourire. Brûlée aux feux de la rampe , Paris, Éditions Plon, 1996, 244 p.  (ISBN 2-259-18412-X)
-Traductions
-Petite Alice aux merveilles de Lewis Carroll, ill. Emmanuel Polanco, Paris, Éditions Gallimard, coll. «Hors-série Giboulées», 2013, 42 p.   (ISBN 978-2-07-064614-2)</t>
+Les Champs captants, Paris, R. Laffont, 2023, 251 p.  (ISBN 978-2-221-25380-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Florence_Delaporte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Delaporte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>À quoi rêve Crusoé ?, Rodez, France, Éditions du Rouergue, coll. « Dacodac », 2012, 119 p.  (ISBN 978-2-8126-0446-1)
+Amour ennemi, Paris, Éditions Oskar, 2013, 133 p.  (ISBN 979-10-214-0007-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florence_Delaporte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Delaporte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sœur Sourire. Brûlée aux feux de la rampe , Paris, Éditions Plon, 1996, 244 p.  (ISBN 2-259-18412-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Florence_Delaporte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Delaporte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Petite Alice aux merveilles de Lewis Carroll, ill. Emmanuel Polanco, Paris, Éditions Gallimard, coll. «Hors-série Giboulées», 2013, 42 p.   (ISBN 978-2-07-064614-2)</t>
         </is>
       </c>
     </row>
